--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,16 @@
         <v>13493.98</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/20/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13350.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,16 @@
         <v>13350.54</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/21/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13491.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -1,37 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913218A-97A9-42FD-9CED-8CF2620658F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>08/19/2025</t>
+  </si>
+  <si>
+    <t>08/20/2025</t>
+  </si>
+  <si>
+    <t>08/21/2025</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +73,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,62 +397,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08/19/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>13493.98</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>08/20/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>13350.54</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>08/21/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>13491.24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ECD0AD-268A-4B2A-ADF1-B9E80F232D83}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913218A-97A9-42FD-9CED-8CF2620658F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A6FB6-09F8-4BBB-8616-4848497E4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="2100" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,11 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,11 +399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -434,6 +440,14 @@
       </c>
       <c r="B4">
         <v>13491.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B5">
+        <v>16663.080000000002</v>
       </c>
     </row>
   </sheetData>
@@ -445,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ECD0AD-268A-4B2A-ADF1-B9E80F232D83}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -1,64 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A6FB6-09F8-4BBB-8616-4848497E4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="2100" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>08/19/2025</t>
-  </si>
-  <si>
-    <t>08/20/2025</t>
-  </si>
-  <si>
-    <t>08/21/2025</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,44 +49,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,56 +425,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08/19/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>13493.98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/20/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>13350.54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/21/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>13491.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="B5">
-        <v>16663.080000000002</v>
+      <c r="B5" t="n">
+        <v>16663.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/23/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15810.39</v>
       </c>
     </row>
   </sheetData>
@@ -456,15 +504,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ECD0AD-268A-4B2A-ADF1-B9E80F232D83}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08/23/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.09208987322815021</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9079101267718498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -1,40 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCD836-38FD-47C3-AD9A-A1FC43CC94DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>08/19/2025</t>
+  </si>
+  <si>
+    <t>08/20/2025</t>
+  </si>
+  <si>
+    <t>08/21/2025</t>
+  </si>
+  <si>
+    <t>08/23/2025</t>
+  </si>
+  <si>
+    <t>BTC Allocation</t>
+  </si>
+  <si>
+    <t>Kaspa Allocation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,95 +85,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,76 +410,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08/19/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>13493.98</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>08/20/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>13350.54</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>08/21/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>13491.24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45891</v>
       </c>
-      <c r="B5" t="n">
-        <v>16663.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>08/23/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="B5">
+        <v>16663.080000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>15810.39</v>
       </c>
     </row>
@@ -504,30 +476,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08/23/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.09208987322815021</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9079101267718498</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>9.208987322815021E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.90791012677184979</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -1,76 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCD836-38FD-47C3-AD9A-A1FC43CC94DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>08/19/2025</t>
-  </si>
-  <si>
-    <t>08/20/2025</t>
-  </si>
-  <si>
-    <t>08/21/2025</t>
-  </si>
-  <si>
-    <t>08/23/2025</t>
-  </si>
-  <si>
-    <t>BTC Allocation</t>
-  </si>
-  <si>
-    <t>Kaspa Allocation</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,44 +49,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -410,64 +425,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08/19/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>13493.98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/20/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>13350.54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/21/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>13491.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="B5">
-        <v>16663.080000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="B5" t="n">
+        <v>16663.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/23/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>15810.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08/24/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15391.59</v>
       </c>
     </row>
   </sheetData>
@@ -476,39 +514,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>9.208987322815021E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.90791012677184979</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08/24/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.09522359804995995</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9047764019500401</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,16 @@
       </c>
       <c r="B7" t="n">
         <v>15391.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08/25/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14927.67</v>
       </c>
     </row>
   </sheetData>
@@ -530,14 +540,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08/24/2025</t>
+          <t>08/25/2025</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09522359804995995</v>
+        <v>0.09453157997486517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9047764019500401</v>
+        <v>0.9054684200251348</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -1,40 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A50BD7-2324-4175-BAA1-54D9E17DB0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>08/19/2025</t>
+  </si>
+  <si>
+    <t>08/20/2025</t>
+  </si>
+  <si>
+    <t>08/21/2025</t>
+  </si>
+  <si>
+    <t>08/23/2025</t>
+  </si>
+  <si>
+    <t>08/24/2025</t>
+  </si>
+  <si>
+    <t>08/25/2025</t>
+  </si>
+  <si>
+    <t>BTC %</t>
+  </si>
+  <si>
+    <t>KAS %</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,95 +91,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,96 +416,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08/19/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>13493.98</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>08/20/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>13350.54</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>08/21/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>13491.24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45891</v>
       </c>
-      <c r="B5" t="n">
-        <v>16663.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>08/23/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="B5">
+        <v>16663.080000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>15810.39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>08/24/2025</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>15391.59</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>08/25/2025</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>14927.67</v>
       </c>
     </row>
@@ -524,30 +498,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08/25/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.09453157997486517</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9054684200251348</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>9.4531579974865165E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.90546842002513483</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -1,82 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A50BD7-2324-4175-BAA1-54D9E17DB0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>08/19/2025</t>
-  </si>
-  <si>
-    <t>08/20/2025</t>
-  </si>
-  <si>
-    <t>08/21/2025</t>
-  </si>
-  <si>
-    <t>08/23/2025</t>
-  </si>
-  <si>
-    <t>08/24/2025</t>
-  </si>
-  <si>
-    <t>08/25/2025</t>
-  </si>
-  <si>
-    <t>BTC %</t>
-  </si>
-  <si>
-    <t>KAS %</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,44 +49,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -416,80 +425,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08/19/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>13493.98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/20/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>13350.54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/21/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>13491.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="B5">
-        <v>16663.080000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="B5" t="n">
+        <v>16663.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/23/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>15810.39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08/24/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>15391.59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08/25/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>14927.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08/26/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14690.84</v>
       </c>
     </row>
   </sheetData>
@@ -498,35 +534,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>9.4531579974865165E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.90546842002513483</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08/26/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.09467279385344451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9053272061465555</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -1,40 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FFB8F2-3F6D-4E27-B143-233F023985D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>08/19/2025</t>
+  </si>
+  <si>
+    <t>08/20/2025</t>
+  </si>
+  <si>
+    <t>08/21/2025</t>
+  </si>
+  <si>
+    <t>08/23/2025</t>
+  </si>
+  <si>
+    <t>08/24/2025</t>
+  </si>
+  <si>
+    <t>08/25/2025</t>
+  </si>
+  <si>
+    <t>08/26/2025</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>KAS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,95 +94,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,106 +419,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08/19/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>13493.98</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>08/20/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>13350.54</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>08/21/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>13491.24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45891</v>
       </c>
-      <c r="B5" t="n">
-        <v>16663.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>08/23/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="B5">
+        <v>16663.080000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>15810.39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>08/24/2025</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>15391.59</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>08/25/2025</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>14927.67</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08/26/2025</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>14690.84</v>
       </c>
     </row>
@@ -534,30 +504,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08/26/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.09467279385344451</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9053272061465555</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>9.4672793853444515E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.90532720614655549</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -1,85 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding_stuff\crypto_buys\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FFB8F2-3F6D-4E27-B143-233F023985D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>08/19/2025</t>
-  </si>
-  <si>
-    <t>08/20/2025</t>
-  </si>
-  <si>
-    <t>08/21/2025</t>
-  </si>
-  <si>
-    <t>08/23/2025</t>
-  </si>
-  <si>
-    <t>08/24/2025</t>
-  </si>
-  <si>
-    <t>08/25/2025</t>
-  </si>
-  <si>
-    <t>08/26/2025</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>KAS</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,44 +49,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,83 +425,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08/19/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>13493.98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/20/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>13350.54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/21/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>13491.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="B5">
-        <v>16663.080000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="B5" t="n">
+        <v>16663.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/23/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>15810.39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08/24/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>15391.59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08/25/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>14927.67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08/26/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>14690.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08/27/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14964.71</v>
       </c>
     </row>
   </sheetData>
@@ -504,35 +544,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>9.4672793853444515E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.90532720614655549</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>08/27/2025</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.09399827411551842</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.9060017258844816</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,16 @@
       </c>
       <c r="B10" t="n">
         <v>14964.71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08/28/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15832.36</v>
       </c>
     </row>
   </sheetData>
@@ -560,14 +570,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>08/27/2025</t>
+          <t>08/28/2025</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.09399827411551842</v>
+        <v>0.09439885811184578</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9060017258844816</v>
+        <v>0.9056011418881542</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,16 @@
       </c>
       <c r="B11" t="n">
         <v>15832.36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08/29/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11839.93</v>
       </c>
     </row>
   </sheetData>
@@ -570,14 +580,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>08/28/2025</t>
+          <t>08/29/2025</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.09439885811184578</v>
+        <v>0.1104204078508326</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9056011418881542</v>
+        <v>0.8895795921491674</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,16 @@
       </c>
       <c r="B12" t="n">
         <v>11839.93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08/30/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11447.83</v>
       </c>
     </row>
   </sheetData>
@@ -580,14 +590,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>08/29/2025</t>
+          <t>08/30/2025</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.1104204078508326</v>
+        <v>0.1105078176324462</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8895795921491674</v>
+        <v>0.8894921823675538</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,16 @@
       </c>
       <c r="B13" t="n">
         <v>11447.83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08/31/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11540.15</v>
       </c>
     </row>
   </sheetData>
@@ -590,14 +600,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>08/30/2025</t>
+          <t>08/31/2025</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.1105078176324462</v>
+        <v>0.1124501629923415</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8894921823675538</v>
+        <v>0.8875498370076585</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,16 @@
       </c>
       <c r="B14" t="n">
         <v>11540.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>09/01/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11390.83</v>
       </c>
     </row>
   </sheetData>
@@ -600,14 +610,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>08/31/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.1124501629923415</v>
+        <v>0.1138573803187714</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8875498370076585</v>
+        <v>0.8861426196812286</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +480,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="B5" t="n">
@@ -588,36 +587,14 @@
         <v>11390.83</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>09/01/2025</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>0.1138573803187714</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.8861426196812286</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>09/02/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13336.21</v>
       </c>
     </row>
   </sheetData>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,16 @@
         <v>13336.21</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09/03/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13755.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +607,16 @@
         <v>13755.16</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13529.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +617,16 @@
         <v>13529.73</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13761.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,16 @@
         <v>13761.69</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12477.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,16 @@
         <v>12477.94</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>14447.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,6 +647,16 @@
         <v>14447.36</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/08/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15050.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,6 +657,16 @@
         <v>15050.97</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14882.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +667,16 @@
         <v>14882.22</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14898.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,16 @@
         <v>14898.33</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15253.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +687,16 @@
         <v>15253.51</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>15960.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,16 @@
         <v>15960.33</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>09/13/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>16801.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,16 @@
         <v>16801.09</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09/14/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>16222.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,6 +717,16 @@
         <v>16222.95</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09/15/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>15297.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +727,16 @@
         <v>15297.89</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09/16/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>15785.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,16 @@
         <v>15785.27</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>09/17/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>15900.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,6 +747,16 @@
         <v>15900.13</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09/18/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16630.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,16 @@
         <v>16630.07</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/19/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15979.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,6 +767,16 @@
         <v>15979.25</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09/20/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15636.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,16 @@
         <v>15636.31</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/21/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>15252.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,6 +787,16 @@
         <v>15252.04</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09/22/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14779.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,6 +797,16 @@
         <v>14779.22</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15360.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,16 @@
         <v>15360.44</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>09/24/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>15259.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,6 +817,16 @@
         <v>15259.24</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>09/25/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14632.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +827,16 @@
         <v>14632.21</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>09/26/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14664.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +837,16 @@
         <v>14664.18</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>09/27/2025</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14542.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,6 +847,16 @@
         <v>14542.59</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>09/28/2025</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14139.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,6 +857,16 @@
         <v>14139.33</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09/29/2025</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>14517.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,6 +867,16 @@
         <v>14517.44</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/30/2025</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>14397.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,6 +877,16 @@
         <v>14397.21</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>14999.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,6 +887,16 @@
         <v>14999.11</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>15812.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,16 @@
         <v>15812.34</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>15474.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,16 @@
         <v>15474.33</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>15102.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,6 +917,16 @@
         <v>15102.67</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>14867.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,6 +927,16 @@
         <v>14867.83</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>15060.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,16 @@
         <v>15060.38</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>15208.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,16 @@
         <v>15208.78</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>14733.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,6 +957,16 @@
         <v>14733.41</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>14480.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,6 +967,16 @@
         <v>14480.62</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>14519.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,6 +977,16 @@
         <v>14519.98</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>11071.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,6 +987,16 @@
         <v>11071.3</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10979.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,6 +997,16 @@
         <v>10979.09</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10/13/2025</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>11910.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,16 @@
         <v>11910.66</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10/14/2025</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10940.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,6 +1017,16 @@
         <v>10940.11</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10/15/2025</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>11034.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,6 +1027,16 @@
         <v>11034.92</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10/16/2025</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>11051.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,16 @@
         <v>11051.71</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10/17/2025</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9501.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,6 +1047,16 @@
         <v>9501.02</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10/18/2025</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9637.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1057,16 @@
         <v>9637.25</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10/19/2025</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9486.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,16 @@
         <v>9486.57</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10/20/2025</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10101.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,6 +1077,16 @@
         <v>10101.96</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10/21/2025</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9786.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,6 +1087,16 @@
         <v>9786.5</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10/22/2025</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>10068.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,16 @@
         <v>10068.36</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10/23/2025</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>10155.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,6 +1107,16 @@
         <v>10155.31</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10/24/2025</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>10486.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,6 +1117,16 @@
         <v>10486.84</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10/25/2025</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10924.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,6 +1127,16 @@
         <v>10924.94</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10/26/2025</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>11969.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,6 +1137,16 @@
         <v>11969.3</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10/27/2025</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>11677.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,6 +1147,16 @@
         <v>11677.36</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10/28/2025</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>11816.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,6 +1157,16 @@
         <v>11816.54</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10/29/2025</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>11983.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,6 +1167,16 @@
         <v>11983.44</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10998.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,16 @@
         <v>10998.9</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10/31/2025</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10798.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1187,6 +1187,16 @@
         <v>10798.86</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>11/01/2025</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>10859.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,6 +1197,16 @@
         <v>10859.21</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>10748.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,6 +1207,16 @@
         <v>10748.17</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9861.530000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,6 +1217,16 @@
         <v>9861.530000000001</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>8821.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,6 +1227,16 @@
         <v>8821.99</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8875.940000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1237,16 @@
         <v>8875.940000000001</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8915.879999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,6 +1247,16 @@
         <v>8915.879999999999</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9602.040000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,6 +1257,16 @@
         <v>9602.040000000001</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>10487.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,6 +1267,16 @@
         <v>10487.75</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10059.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1277,6 +1277,16 @@
         <v>10059.82</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10671.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,6 +1287,16 @@
         <v>10671.17</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>10269.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,6 +1297,16 @@
         <v>10269.31</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>10024.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,6 +1307,16 @@
         <v>10024.23</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>11/13/2025</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>10080.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,6 +1317,16 @@
         <v>10080.44</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>11/14/2025</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>8724.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,6 +1327,16 @@
         <v>8724.33</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>11/15/2025</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>8884.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,6 +1337,16 @@
         <v>8884.26</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>11/16/2025</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>8762.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,6 +1347,16 @@
         <v>8762.84</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>11/17/2025</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>8827.700000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,6 +1357,16 @@
         <v>8827.700000000001</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>8123.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,6 +1367,16 @@
         <v>8123.83</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>11/19/2025</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8184.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1377,6 +1377,16 @@
         <v>8184.74</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>11/20/2025</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>8188.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1387,6 +1387,16 @@
         <v>8188.95</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>11/21/2025</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6846.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1397,6 +1397,16 @@
         <v>6846.43</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>11/22/2025</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7565.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,6 +1407,16 @@
         <v>7565.55</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>11/23/2025</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8048.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/profit.xlsx
+++ b/data/profit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,6 +1417,16 @@
         <v>8048.36</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>11/24/2025</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8258.360000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
